--- a/消防设施操作员/功能/消防课-整理中编码版.xlsx
+++ b/消防设施操作员/功能/消防课-整理中编码版.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2430" uniqueCount="2122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2484" uniqueCount="2072">
   <si>
     <t>https://playvideo.qcloud.com/getplayinfo/v2/1255404649/5285890805461209980</t>
   </si>
@@ -6392,170 +6392,21 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>https://ouyangxiaoxiao.github.io/xiaofangshipin/30min告别消防小白/spyx7dywgxszksm.mp4</t>
-  </si>
-  <si>
-    <t>https://ouyangxiaoxiao.github.io/xiaofangshipin/30min告别消防小白/vyo6stgbajad4ns.mp4</t>
-  </si>
-  <si>
-    <t>https://ouyangxiaoxiao.github.io/xiaofangshipin/30min告别消防小白/512dvjpvusbx0fn.mp4</t>
-  </si>
-  <si>
-    <t>https://ouyangxiaoxiao.github.io/xiaofangshipin/30min告别消防小白/ox39kqxyat6b4kr.mp4</t>
-  </si>
-  <si>
-    <t>https://ouyangxiaoxiao.github.io/xiaofangshipin/30min告别消防小白/ieg4g4x7iotlpii.mp4</t>
-  </si>
-  <si>
-    <t>https://ouyangxiaoxiao.github.io/xiaofangshipin/30min告别消防小白/q820sa5e35cvqg5.mp4</t>
-  </si>
-  <si>
-    <t>https://ouyangxiaoxiao.github.io/xiaofangshipin/30min告别消防小白/y9k5d7wwngqezat.mp4</t>
-  </si>
-  <si>
-    <t>https://ouyangxiaoxiao.github.io/xiaofangshipin/30min告别消防小白/caanvfzzl5h3cjy.mp4</t>
-  </si>
-  <si>
-    <t>https://ouyangxiaoxiao.github.io/xiaofangshipin/30min告别消防小白/wp7uqchtq1vdccu.mp4</t>
-  </si>
-  <si>
-    <t>https://ouyangxiaoxiao.github.io/xiaofangshipin/30min告别消防小白/xgagngtri9yn0my.mp4</t>
-  </si>
-  <si>
-    <t>https://ouyangxiaoxiao.github.io/xiaofangshipin/30min告别消防小白/2g2szieg7lwqheu.mp4</t>
-  </si>
-  <si>
-    <t>https://ouyangxiaoxiao.github.io/xiaofangshipin/30min告别消防小白/ajnnkslhxoniujy.mp4</t>
-  </si>
-  <si>
-    <t>https://ouyangxiaoxiao.github.io/xiaofangshipin/30min告别消防小白/a5udammnv5fc7ut.mp4</t>
-  </si>
-  <si>
-    <t>https://ouyangxiaoxiao.github.io/xiaofangshipin/30min告别消防小白/05qvcgu3f4m8roo.mp4</t>
-  </si>
-  <si>
-    <t>https://ouyangxiaoxiao.github.io/xiaofangshipin/30min告别消防小白/p85gi2m1iqes1ue.mp4</t>
-  </si>
-  <si>
-    <t>https://ouyangxiaoxiao.github.io/xiaofangshipin/30min告别消防小白/32g1cjugnwns324.mp4</t>
-  </si>
-  <si>
-    <t>https://ouyangxiaoxiao.github.io/xiaofangshipin/30min告别消防小白/47bn08huk2nvyrx.mp4</t>
-  </si>
-  <si>
-    <t>https://ouyangxiaoxiao.github.io/xiaofangshipin/30min告别消防小白/w5l613trtzh9g32.mp4</t>
-  </si>
-  <si>
-    <t>https://ouyangxiaoxiao.github.io/xiaofangshipin/30min告别消防小白/dhfupsikk32rjo8.mp4</t>
-  </si>
-  <si>
-    <t>https://ouyangxiaoxiao.github.io/xiaofangshipin/30min告别消防小白/jnscwsn399d1jok.mp4</t>
-  </si>
-  <si>
-    <t>https://ouyangxiaoxiao.github.io/xiaofangshipin/30min告别消防小白/1mb1yx1h6sfu5i9.mp4</t>
-  </si>
-  <si>
-    <t>https://ouyangxiaoxiao.github.io/xiaofangshipin/30min告别消防小白/53gi1z5rdfgpw91.mp4</t>
-  </si>
-  <si>
-    <t>https://ouyangxiaoxiao.github.io/xiaofangshipin/30min告别消防小白/0zvitxh588vao6u.mp4</t>
-  </si>
-  <si>
-    <t>https://ouyangxiaoxiao.github.io/xiaofangshipin/30min告别消防小白/f43sword5sbetef.mp4</t>
-  </si>
-  <si>
-    <t>https://ouyangxiaoxiao.github.io/xiaofangshipin/30min告别消防小白/q4k1rdaz24oknee.mp4</t>
-  </si>
-  <si>
-    <t>https://ouyangxiaoxiao.github.io/xiaofangshipin/30min告别消防小白/2kx6w3nppwinjyw.mp4</t>
-  </si>
-  <si>
-    <t>https://ouyangxiaoxiao.github.io/xiaofangshipin/30min告别消防小白/wsppoisdqbpa29k.mp4</t>
-  </si>
-  <si>
-    <t>https://ouyangxiaoxiao.github.io/xiaofangshipin/30min告别消防小白/918qsm21k1zplrb.mp4</t>
-  </si>
-  <si>
-    <t>https://ouyangxiaoxiao.github.io/xiaofangshipin/30min告别消防小白/rxoa0hadusi19u7.mp4</t>
-  </si>
-  <si>
-    <t>https://ouyangxiaoxiao.github.io/xiaofangshipin/30min告别消防小白/ghl1v2ai5c19i13.mp4</t>
-  </si>
-  <si>
-    <t>https://ouyangxiaoxiao.github.io/xiaofangshipin/30min告别消防小白/glmxzk0qs2flqqs.mp4</t>
-  </si>
-  <si>
-    <t>https://ouyangxiaoxiao.github.io/xiaofangshipin/30min告别消防小白/y3dtw7fkh6oqi29.mp4</t>
-  </si>
-  <si>
-    <t>https://ouyangxiaoxiao.github.io/xiaofangshipin/30min告别消防小白/4ftqo9jyvn880jw.mp4</t>
-  </si>
-  <si>
-    <t>https://ouyangxiaoxiao.github.io/xiaofangshipin/30min告别消防小白/dz1dignyx731pt6.mp4</t>
-  </si>
-  <si>
-    <t>https://ouyangxiaoxiao.github.io/xiaofangshipin/30min告别消防小白/eslivgk70eg8x2w.mp4</t>
-  </si>
-  <si>
-    <t>https://ouyangxiaoxiao.github.io/xiaofangshipin/30min告别消防小白/62ht3muj1bi1osk.mp4</t>
-  </si>
-  <si>
-    <t>https://ouyangxiaoxiao.github.io/xiaofangshipin/30min告别消防小白/sakoym945etjger.mp4</t>
-  </si>
-  <si>
-    <t>https://ouyangxiaoxiao.github.io/xiaofangshipin/30min告别消防小白/w75abdok9mzinzb.mp4</t>
-  </si>
-  <si>
-    <t>https://ouyangxiaoxiao.github.io/xiaofangshipin/30min告别消防小白/lmrnfhs3xk0r5ue.mp4</t>
-  </si>
-  <si>
-    <t>https://ouyangxiaoxiao.github.io/xiaofangshipin/30min告别消防小白/vrzsi3poy8mpdt3.mp4</t>
-  </si>
-  <si>
-    <t>https://ouyangxiaoxiao.github.io/xiaofangshipin/30min告别消防小白/ywpck91nm1b8yqd.mp4</t>
-  </si>
-  <si>
-    <t>https://ouyangxiaoxiao.github.io/xiaofangshipin/30min告别消防小白/527tgdyullceiwe.mp4</t>
-  </si>
-  <si>
-    <t>https://ouyangxiaoxiao.github.io/xiaofangshipin/30min告别消防小白/d9hxzyokc3s0fjw.mp4</t>
-  </si>
-  <si>
-    <t>https://ouyangxiaoxiao.github.io/xiaofangshipin/30min告别消防小白/fe971j6s9lz4wcx.mp4</t>
-  </si>
-  <si>
-    <t>https://ouyangxiaoxiao.github.io/xiaofangshipin/30min告别消防小白/4ylhemfdkyn2pcc.mp4</t>
-  </si>
-  <si>
-    <t>https://ouyangxiaoxiao.github.io/xiaofangshipin/30min告别消防小白/fgjd6vm0s3z81rp.mp4</t>
-  </si>
-  <si>
-    <t>https://ouyangxiaoxiao.github.io/xiaofangshipin/30min告别消防小白/ktj64g3s3fhvqku.mp4</t>
-  </si>
-  <si>
-    <t>https://ouyangxiaoxiao.github.io/xiaofangshipin/30min告别消防小白/u9p3epjo957mzft.mp4</t>
-  </si>
-  <si>
-    <t>https://ouyangxiaoxiao.github.io/xiaofangshipin/30min告别消防小白/uvuh1e38ugi8myh.mp4</t>
-  </si>
-  <si>
-    <t>https://ouyangxiaoxiao.github.io/xiaofangshipin/30min告别消防小白/7h554wpo0pdct5p.mp4</t>
-  </si>
-  <si>
-    <t>https://ouyangxiaoxiao.github.io/xiaofangshipin/30min告别消防小白/z9o6pw21ym69l08.mp4</t>
-  </si>
-  <si>
-    <t>https://ouyangxiaoxiao.github.io/xiaofangshipin/30min告别消防小白/02gozz8anrzz7ci.mp4</t>
-  </si>
-  <si>
-    <t>https://ouyangxiaoxiao.github.io/xiaofangshipin/30min告别消防小白/nv3kh1o7qklulxu.mp4</t>
-  </si>
-  <si>
-    <t>https://ouyangxiaoxiao.github.io/xiaofangshipin/30min告别消防小白/iwgrt9kbpar63qe.mp4</t>
+    <t>30min告别消防小白 前导</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>30min告别消防小白 前导</t>
+    <t>.mp4</t>
+  </si>
+  <si>
+    <t>.mp4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ouyangxiaoxiao.github.io/30min/</t>
+  </si>
+  <si>
+    <t>https://ouyangxiaoxiao.github.io/30min/</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -8099,781 +7950,1213 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="9" style="23"/>
-    <col min="3" max="3" width="22" style="23" customWidth="1"/>
-    <col min="4" max="4" width="34" style="23" customWidth="1"/>
-    <col min="5" max="5" width="24.375" style="23" customWidth="1"/>
-    <col min="6" max="6" width="25.625" style="23" customWidth="1"/>
+    <col min="1" max="1" width="17.875" style="23" customWidth="1"/>
+    <col min="2" max="2" width="30.75" style="23" customWidth="1"/>
+    <col min="3" max="3" width="42" style="23" customWidth="1"/>
+    <col min="4" max="5" width="34" style="23" customWidth="1"/>
+    <col min="6" max="6" width="24.375" style="23" customWidth="1"/>
+    <col min="7" max="7" width="25.625" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:6">
-      <c r="C1" s="23" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="23" t="str">
+        <f>C1&amp;D1&amp;E1</f>
+        <v>https://ouyangxiaoxiao.github.io/30min/30min告别消防小白 前导.mp4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2071</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>2067</v>
       </c>
-      <c r="D1" s="23" t="s">
-        <v>2121</v>
-      </c>
       <c r="E1" s="23" t="s">
+        <v>2069</v>
+      </c>
+      <c r="F1" s="23" t="s">
         <v>799</v>
       </c>
-      <c r="F1" s="23">
+      <c r="G1" s="23">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="3:6">
-      <c r="C2" s="23" t="s">
-        <v>2068</v>
+    <row r="2" spans="1:7">
+      <c r="A2" s="23" t="str">
+        <f t="shared" ref="A2:A54" si="0">C2&amp;D2&amp;E2</f>
+        <v>https://ouyangxiaoxiao.github.io/30min/30min告别消防小白 燃烧条件.mp4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2071</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>2013</v>
       </c>
       <c r="E2" s="23" t="s">
+        <v>2069</v>
+      </c>
+      <c r="F2" s="23" t="s">
         <v>800</v>
       </c>
-      <c r="F2" s="23">
+      <c r="G2" s="23">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="3:6">
-      <c r="C3" s="23" t="s">
-        <v>2069</v>
+    <row r="3" spans="1:7">
+      <c r="A3" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/30min告别消防小白 爆炸极限.mp4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2070</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>2014</v>
       </c>
       <c r="E3" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F3" s="23" t="s">
         <v>801</v>
       </c>
-      <c r="F3" s="23">
+      <c r="G3" s="23">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="3:6">
-      <c r="C4" s="23" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/30min告别消防小白 生产的火灾危险性.mp4</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>2070</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>2015</v>
       </c>
       <c r="E4" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F4" s="23" t="s">
         <v>802</v>
       </c>
-      <c r="F4" s="23">
+      <c r="G4" s="23">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="3:6">
-      <c r="C5" s="23" t="s">
-        <v>2071</v>
+    <row r="5" spans="1:7">
+      <c r="A5" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/30min告别消防小白 建筑分类.mp4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2070</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>2016</v>
       </c>
       <c r="E5" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F5" s="23" t="s">
         <v>803</v>
       </c>
-      <c r="F5" s="23">
+      <c r="G5" s="23">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="3:6">
-      <c r="C6" s="23" t="s">
-        <v>2072</v>
+    <row r="6" spans="1:7">
+      <c r="A6" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/30min告别消防小白 防火间距.mp4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>2070</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>2017</v>
       </c>
       <c r="E6" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F6" s="23" t="s">
         <v>804</v>
       </c>
-      <c r="F6" s="23">
+      <c r="G6" s="23">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="3:6">
-      <c r="C7" s="23" t="s">
-        <v>2073</v>
+    <row r="7" spans="1:7">
+      <c r="A7" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/30min告别消防小白 防火门.mp4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>2070</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>2018</v>
       </c>
       <c r="E7" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F7" s="23" t="s">
         <v>805</v>
       </c>
-      <c r="F7" s="23">
+      <c r="G7" s="23">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="3:6">
-      <c r="C8" s="23" t="s">
-        <v>2074</v>
+    <row r="8" spans="1:7">
+      <c r="A8" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/30min告别消防小白 安全疏散.mp4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>2070</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>2019</v>
       </c>
       <c r="E8" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F8" s="23" t="s">
         <v>806</v>
       </c>
-      <c r="F8" s="23">
+      <c r="G8" s="23">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="3:6">
-      <c r="C9" s="23" t="s">
-        <v>2075</v>
+    <row r="9" spans="1:7">
+      <c r="A9" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/30min告别消防小白 装修材料.mp4</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>2070</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>2020</v>
       </c>
       <c r="E9" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F9" s="23" t="s">
         <v>807</v>
       </c>
-      <c r="F9" s="23">
+      <c r="G9" s="23">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="3:6">
-      <c r="C10" s="23" t="s">
-        <v>2076</v>
+    <row r="10" spans="1:7">
+      <c r="A10" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/30min告别消防小白 消防车道.mp4</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>2070</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>2021</v>
       </c>
       <c r="E10" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F10" s="23" t="s">
         <v>808</v>
       </c>
-      <c r="F10" s="23">
+      <c r="G10" s="23">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="3:6">
-      <c r="C11" s="23" t="s">
-        <v>2077</v>
+    <row r="11" spans="1:7">
+      <c r="A11" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/30min告别消防小白 室外消火栓.mp4</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>2070</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>2022</v>
       </c>
       <c r="E11" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F11" s="23" t="s">
         <v>809</v>
       </c>
-      <c r="F11" s="23">
+      <c r="G11" s="23">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="3:6">
-      <c r="C12" s="23" t="s">
-        <v>2078</v>
+    <row r="12" spans="1:7">
+      <c r="A12" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/30min告别消防小白 自动喷水灭火系统.mp4</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>2070</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>2023</v>
       </c>
       <c r="E12" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F12" s="23" t="s">
         <v>810</v>
       </c>
-      <c r="F12" s="23">
+      <c r="G12" s="23">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="3:6">
-      <c r="C13" s="23" t="s">
-        <v>2079</v>
+    <row r="13" spans="1:7">
+      <c r="A13" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/30min告别消防小白 气体灭火系统.mp4</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>2070</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>2024</v>
       </c>
       <c r="E13" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F13" s="23" t="s">
         <v>811</v>
       </c>
-      <c r="F13" s="23">
+      <c r="G13" s="23">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="3:6">
+    <row r="14" spans="1:7">
+      <c r="A14" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/30min告别消防小白 泡沫灭火系统.mp4</v>
+      </c>
       <c r="C14" s="2" t="s">
-        <v>2120</v>
+        <v>2070</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>2025</v>
       </c>
       <c r="E14" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F14" s="23" t="s">
         <v>812</v>
       </c>
-      <c r="F14" s="23">
+      <c r="G14" s="23">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="3:6">
-      <c r="C15" s="23" t="s">
-        <v>2080</v>
+    <row r="15" spans="1:7">
+      <c r="A15" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/30min告别消防小白 火灾探测器.mp4</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>2070</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>2026</v>
       </c>
       <c r="E15" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F15" s="23" t="s">
         <v>813</v>
       </c>
-      <c r="F15" s="23">
+      <c r="G15" s="23">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="3:6">
-      <c r="C16" s="23" t="s">
-        <v>2081</v>
+    <row r="16" spans="1:7">
+      <c r="A16" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/30min告别消防小白 防排烟系统.mp4</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>2070</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>2027</v>
       </c>
       <c r="E16" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F16" s="23" t="s">
         <v>814</v>
       </c>
-      <c r="F16" s="23">
+      <c r="G16" s="23">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="3:6">
-      <c r="C17" s="23" t="s">
-        <v>2082</v>
+    <row r="17" spans="1:7">
+      <c r="A17" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/30min告别消防小白 灭火器分类.mp4</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>2070</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>2028</v>
       </c>
       <c r="E17" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F17" s="23" t="s">
         <v>815</v>
       </c>
-      <c r="F17" s="23">
+      <c r="G17" s="23">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="3:6">
-      <c r="C18" s="23" t="s">
-        <v>2083</v>
+    <row r="18" spans="1:7">
+      <c r="A18" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/建筑防火 （0）前导.mp4</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>2070</v>
       </c>
       <c r="D18" s="23" t="s">
         <v>2029</v>
       </c>
       <c r="E18" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F18" s="23" t="s">
         <v>816</v>
       </c>
-      <c r="F18" s="23">
+      <c r="G18" s="23">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="3:6">
-      <c r="C19" s="23" t="s">
-        <v>2084</v>
+    <row r="19" spans="1:7">
+      <c r="A19" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/建筑防火 （1）厂房建筑防火速记1.mp4</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>2070</v>
       </c>
       <c r="D19" s="23" t="s">
         <v>2030</v>
       </c>
       <c r="E19" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F19" s="23" t="s">
         <v>817</v>
       </c>
-      <c r="F19" s="23">
+      <c r="G19" s="23">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="3:6">
-      <c r="C20" s="23" t="s">
-        <v>2085</v>
+    <row r="20" spans="1:7">
+      <c r="A20" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/建筑防火 （2）厂房建筑防火速记2.mp4</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>2070</v>
       </c>
       <c r="D20" s="23" t="s">
         <v>2031</v>
       </c>
       <c r="E20" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F20" s="23" t="s">
         <v>818</v>
       </c>
-      <c r="F20" s="23">
+      <c r="G20" s="23">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="3:6">
-      <c r="C21" s="23" t="s">
-        <v>2086</v>
+    <row r="21" spans="1:7">
+      <c r="A21" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/建筑防火 （3）厂房建筑防火速记3.mp4</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>2070</v>
       </c>
       <c r="D21" s="23" t="s">
         <v>2032</v>
       </c>
       <c r="E21" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F21" s="23" t="s">
         <v>819</v>
       </c>
-      <c r="F21" s="23">
+      <c r="G21" s="23">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="3:6">
-      <c r="C22" s="23" t="s">
-        <v>2087</v>
+    <row r="22" spans="1:7">
+      <c r="A22" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/建筑防火 （4）仓库建筑防火速记.mp4</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>2070</v>
       </c>
       <c r="D22" s="23" t="s">
         <v>2033</v>
       </c>
       <c r="E22" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F22" s="23" t="s">
         <v>820</v>
       </c>
-      <c r="F22" s="23">
+      <c r="G22" s="23">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="3:6">
-      <c r="C23" s="23" t="s">
-        <v>2088</v>
+    <row r="23" spans="1:7">
+      <c r="A23" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/建筑防火 （5）民用建筑防火速记1.mp4</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>2070</v>
       </c>
       <c r="D23" s="23" t="s">
         <v>2034</v>
       </c>
       <c r="E23" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F23" s="23" t="s">
         <v>821</v>
       </c>
-      <c r="F23" s="23">
+      <c r="G23" s="23">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="3:6">
-      <c r="C24" s="23" t="s">
-        <v>2089</v>
+    <row r="24" spans="1:7">
+      <c r="A24" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/建筑防火 （6）民用建筑防火速记2.mp4</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>2070</v>
       </c>
       <c r="D24" s="23" t="s">
         <v>2035</v>
       </c>
       <c r="E24" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F24" s="23" t="s">
         <v>822</v>
       </c>
-      <c r="F24" s="23">
+      <c r="G24" s="23">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="3:6">
-      <c r="C25" s="23" t="s">
-        <v>2090</v>
+    <row r="25" spans="1:7">
+      <c r="A25" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/建筑防火 （7）民用建筑防火速记3.mp4</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>2070</v>
       </c>
       <c r="D25" s="23" t="s">
         <v>2036</v>
       </c>
       <c r="E25" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F25" s="23" t="s">
         <v>823</v>
       </c>
-      <c r="F25" s="23">
+      <c r="G25" s="23">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="3:6">
-      <c r="C26" s="23" t="s">
-        <v>2091</v>
+    <row r="26" spans="1:7">
+      <c r="A26" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/建筑防火 （8）民用建筑防火速记4.mp4</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>2070</v>
       </c>
       <c r="D26" s="23" t="s">
         <v>2037</v>
       </c>
       <c r="E26" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F26" s="23" t="s">
         <v>824</v>
       </c>
-      <c r="F26" s="23">
+      <c r="G26" s="23">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="3:6">
-      <c r="C27" s="23" t="s">
-        <v>2092</v>
+    <row r="27" spans="1:7">
+      <c r="A27" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/建筑防火 （9）建筑防火共性考点速记1.mp4</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>2070</v>
       </c>
       <c r="D27" s="23" t="s">
         <v>2038</v>
       </c>
       <c r="E27" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F27" s="23" t="s">
         <v>825</v>
       </c>
-      <c r="F27" s="23">
+      <c r="G27" s="23">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="3:6">
-      <c r="C28" s="23" t="s">
-        <v>2093</v>
+    <row r="28" spans="1:7">
+      <c r="A28" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/建筑防火 （10）建筑防火共性考点速记2.mp4</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>2070</v>
       </c>
       <c r="D28" s="23" t="s">
         <v>2039</v>
       </c>
       <c r="E28" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F28" s="23" t="s">
         <v>826</v>
       </c>
-      <c r="F28" s="23">
+      <c r="G28" s="23">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="3:6">
-      <c r="C29" s="23" t="s">
-        <v>2094</v>
+    <row r="29" spans="1:7">
+      <c r="A29" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/建筑防火 （11）建筑防火共性考点速记3.mp4</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>2070</v>
       </c>
       <c r="D29" s="23" t="s">
         <v>2040</v>
       </c>
       <c r="E29" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F29" s="23" t="s">
         <v>827</v>
       </c>
-      <c r="F29" s="23">
+      <c r="G29" s="23">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="3:6">
-      <c r="C30" s="23" t="s">
-        <v>2095</v>
+    <row r="30" spans="1:7">
+      <c r="A30" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/设施实务 （1）消防给水.mp4</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>2070</v>
       </c>
       <c r="D30" s="23" t="s">
         <v>2041</v>
       </c>
       <c r="E30" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F30" s="23" t="s">
         <v>828</v>
       </c>
-      <c r="F30" s="23">
+      <c r="G30" s="23">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="3:6">
-      <c r="C31" s="23" t="s">
-        <v>2096</v>
+    <row r="31" spans="1:7">
+      <c r="A31" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/设施实务 （2）消火栓.mp4</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>2070</v>
       </c>
       <c r="D31" s="23" t="s">
         <v>2042</v>
       </c>
       <c r="E31" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F31" s="23" t="s">
         <v>829</v>
       </c>
-      <c r="F31" s="23">
+      <c r="G31" s="23">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="3:6">
-      <c r="C32" s="23" t="s">
-        <v>2097</v>
+    <row r="32" spans="1:7">
+      <c r="A32" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/设施实务 （3）自动喷水.mp4</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>2070</v>
       </c>
       <c r="D32" s="23" t="s">
         <v>2043</v>
       </c>
       <c r="E32" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F32" s="23" t="s">
         <v>830</v>
       </c>
-      <c r="F32" s="23">
+      <c r="G32" s="23">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="3:6">
-      <c r="C33" s="23" t="s">
-        <v>2098</v>
+    <row r="33" spans="1:7">
+      <c r="A33" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/设施实务 （4）水喷雾细水雾.mp4</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>2070</v>
       </c>
       <c r="D33" s="23" t="s">
         <v>2044</v>
       </c>
       <c r="E33" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F33" s="23" t="s">
         <v>831</v>
       </c>
-      <c r="F33" s="23">
+      <c r="G33" s="23">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="3:6">
-      <c r="C34" s="23" t="s">
-        <v>2099</v>
+    <row r="34" spans="1:7">
+      <c r="A34" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/设施实务 （5）泡沫.mp4</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>2070</v>
       </c>
       <c r="D34" s="23" t="s">
         <v>2045</v>
       </c>
       <c r="E34" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F34" s="23" t="s">
         <v>832</v>
       </c>
-      <c r="F34" s="23">
+      <c r="G34" s="23">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="3:6">
-      <c r="C35" s="23" t="s">
-        <v>2100</v>
+    <row r="35" spans="1:7">
+      <c r="A35" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/设施实务 （6）气体干粉.mp4</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>2070</v>
       </c>
       <c r="D35" s="23" t="s">
         <v>2046</v>
       </c>
       <c r="E35" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F35" s="23" t="s">
         <v>833</v>
       </c>
-      <c r="F35" s="23">
+      <c r="G35" s="23">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="3:6">
-      <c r="C36" s="23" t="s">
-        <v>2101</v>
+    <row r="36" spans="1:7">
+      <c r="A36" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/设施实务 （7）灭火器.mp4</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>2070</v>
       </c>
       <c r="D36" s="23" t="s">
         <v>2047</v>
       </c>
       <c r="E36" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F36" s="23" t="s">
         <v>834</v>
       </c>
-      <c r="F36" s="23">
+      <c r="G36" s="23">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="3:6">
-      <c r="C37" s="23" t="s">
-        <v>2102</v>
+    <row r="37" spans="1:7">
+      <c r="A37" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/设施实务 （8）防排烟.mp4</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>2070</v>
       </c>
       <c r="D37" s="23" t="s">
         <v>2048</v>
       </c>
       <c r="E37" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F37" s="23" t="s">
         <v>835</v>
       </c>
-      <c r="F37" s="23">
+      <c r="G37" s="23">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="3:6">
-      <c r="C38" s="23" t="s">
-        <v>2103</v>
+    <row r="38" spans="1:7">
+      <c r="A38" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/设施实务 （9）自动报警.mp4</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>2070</v>
       </c>
       <c r="D38" s="23" t="s">
         <v>2049</v>
       </c>
       <c r="E38" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F38" s="23" t="s">
         <v>836</v>
       </c>
-      <c r="F38" s="23">
+      <c r="G38" s="23">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="3:6">
-      <c r="C39" s="23" t="s">
-        <v>2104</v>
+    <row r="39" spans="1:7">
+      <c r="A39" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/设施实务 （10）照明供电.mp4</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>2070</v>
       </c>
       <c r="D39" s="23" t="s">
         <v>2050</v>
       </c>
       <c r="E39" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F39" s="23" t="s">
         <v>837</v>
       </c>
-      <c r="F39" s="23">
+      <c r="G39" s="23">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="3:6">
-      <c r="C40" s="23" t="s">
-        <v>2105</v>
+    <row r="40" spans="1:7">
+      <c r="A40" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/设施综合 （1）安装前检查速记1.mp4</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>2070</v>
       </c>
       <c r="D40" s="23" t="s">
         <v>2051</v>
       </c>
       <c r="E40" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F40" s="23" t="s">
         <v>838</v>
       </c>
-      <c r="F40" s="23">
+      <c r="G40" s="23">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="3:6">
-      <c r="C41" s="23" t="s">
-        <v>2106</v>
+    <row r="41" spans="1:7">
+      <c r="A41" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/设施综合 （2）安装前检查速记2.mp4</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>2070</v>
       </c>
       <c r="D41" s="23" t="s">
         <v>2052</v>
       </c>
       <c r="E41" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F41" s="23" t="s">
         <v>839</v>
       </c>
-      <c r="F41" s="23">
+      <c r="G41" s="23">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="3:6">
-      <c r="C42" s="23" t="s">
-        <v>2107</v>
+    <row r="42" spans="1:7">
+      <c r="A42" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/设施综合 （3）安装速记1.mp4</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>2070</v>
       </c>
       <c r="D42" s="23" t="s">
         <v>2053</v>
       </c>
       <c r="E42" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F42" s="23" t="s">
         <v>840</v>
       </c>
-      <c r="F42" s="23">
+      <c r="G42" s="23">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="3:6">
-      <c r="C43" s="23" t="s">
-        <v>2108</v>
+    <row r="43" spans="1:7">
+      <c r="A43" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/设施综合 （4）安装速记2.mp4</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>2070</v>
       </c>
       <c r="D43" s="23" t="s">
         <v>2054</v>
       </c>
       <c r="E43" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F43" s="23" t="s">
         <v>841</v>
       </c>
-      <c r="F43" s="23">
+      <c r="G43" s="23">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="3:6">
-      <c r="C44" s="23" t="s">
-        <v>2109</v>
+    <row r="44" spans="1:7">
+      <c r="A44" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/设施综合 （5）安装速记3.mp4</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>2070</v>
       </c>
       <c r="D44" s="23" t="s">
         <v>2055</v>
       </c>
       <c r="E44" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F44" s="23" t="s">
         <v>842</v>
       </c>
-      <c r="F44" s="23">
+      <c r="G44" s="23">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="3:6">
-      <c r="C45" s="23" t="s">
-        <v>2110</v>
+    <row r="45" spans="1:7">
+      <c r="A45" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/设施综合 （6）调试速记1.mp4</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>2070</v>
       </c>
       <c r="D45" s="23" t="s">
         <v>2056</v>
       </c>
       <c r="E45" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F45" s="23" t="s">
         <v>843</v>
       </c>
-      <c r="F45" s="23">
+      <c r="G45" s="23">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="3:6">
-      <c r="C46" s="23" t="s">
-        <v>2111</v>
+    <row r="46" spans="1:7">
+      <c r="A46" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/设施综合 （7）调试速记2.mp4</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>2070</v>
       </c>
       <c r="D46" s="23" t="s">
         <v>2057</v>
       </c>
       <c r="E46" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F46" s="23" t="s">
         <v>844</v>
       </c>
-      <c r="F46" s="23">
+      <c r="G46" s="23">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="3:6">
-      <c r="C47" s="23" t="s">
-        <v>2112</v>
+    <row r="47" spans="1:7">
+      <c r="A47" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/设施综合 （8）维护管理速记.mp4</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>2070</v>
       </c>
       <c r="D47" s="23" t="s">
         <v>2058</v>
       </c>
       <c r="E47" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F47" s="23" t="s">
         <v>845</v>
       </c>
-      <c r="F47" s="23">
+      <c r="G47" s="23">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="3:6">
-      <c r="C48" s="23" t="s">
-        <v>2113</v>
+    <row r="48" spans="1:7">
+      <c r="A48" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/法规管理 （1）法律法规速记1.mp4</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>2070</v>
       </c>
       <c r="D48" s="23" t="s">
         <v>2059</v>
       </c>
       <c r="E48" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F48" s="23" t="s">
         <v>846</v>
       </c>
-      <c r="F48" s="23">
+      <c r="G48" s="23">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="3:6">
-      <c r="C49" s="23" t="s">
-        <v>2114</v>
+    <row r="49" spans="1:7">
+      <c r="A49" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/法规管理 （2）法律法规速记2.mp4</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>2070</v>
       </c>
       <c r="D49" s="23" t="s">
         <v>2060</v>
       </c>
       <c r="E49" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F49" s="23" t="s">
         <v>847</v>
       </c>
-      <c r="F49" s="23">
+      <c r="G49" s="23">
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="3:6">
-      <c r="C50" s="23" t="s">
-        <v>2115</v>
+    <row r="50" spans="1:7">
+      <c r="A50" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/法规管理 （3）消防安全管理速记1.mp4</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>2070</v>
       </c>
       <c r="D50" s="23" t="s">
         <v>2061</v>
       </c>
       <c r="E50" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F50" s="23" t="s">
         <v>848</v>
       </c>
-      <c r="F50" s="23">
+      <c r="G50" s="23">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="3:6">
-      <c r="C51" s="23" t="s">
-        <v>2116</v>
+    <row r="51" spans="1:7">
+      <c r="A51" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/法规管理 （4）消防安全管理速记2.mp4</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>2070</v>
       </c>
       <c r="D51" s="23" t="s">
         <v>2062</v>
       </c>
       <c r="E51" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F51" s="23" t="s">
         <v>849</v>
       </c>
-      <c r="F51" s="23">
+      <c r="G51" s="23">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="3:6">
-      <c r="C52" s="23" t="s">
-        <v>2117</v>
+    <row r="52" spans="1:7">
+      <c r="A52" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/其他场所 （1）石油化工.mp4</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>2070</v>
       </c>
       <c r="D52" s="23" t="s">
         <v>2063</v>
       </c>
       <c r="E52" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F52" s="23" t="s">
         <v>850</v>
       </c>
-      <c r="F52" s="23">
+      <c r="G52" s="23">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="3:6">
-      <c r="C53" s="23" t="s">
-        <v>2118</v>
+    <row r="53" spans="1:7">
+      <c r="A53" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/其他场所 （2）汽车库修车库.mp4</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>2070</v>
       </c>
       <c r="D53" s="23" t="s">
         <v>2064</v>
       </c>
       <c r="E53" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F53" s="23" t="s">
         <v>851</v>
       </c>
-      <c r="F53" s="23">
+      <c r="G53" s="23">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="3:6">
-      <c r="C54" s="23" t="s">
-        <v>2119</v>
+    <row r="54" spans="1:7">
+      <c r="A54" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/其他场所 （3）人防工程.mp4</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>2070</v>
       </c>
       <c r="D54" s="23" t="s">
         <v>2065</v>
       </c>
       <c r="E54" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F54" s="23" t="s">
         <v>852</v>
       </c>
-      <c r="F54" s="23">
+      <c r="G54" s="23">
         <v>54</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C14" r:id="rId1"/>
+    <hyperlink ref="C1" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C7" r:id="rId5"/>
+    <hyperlink ref="C9" r:id="rId6"/>
+    <hyperlink ref="C11" r:id="rId7"/>
+    <hyperlink ref="C13" r:id="rId8"/>
+    <hyperlink ref="C15" r:id="rId9"/>
+    <hyperlink ref="C17" r:id="rId10"/>
+    <hyperlink ref="C19" r:id="rId11"/>
+    <hyperlink ref="C21" r:id="rId12"/>
+    <hyperlink ref="C23" r:id="rId13"/>
+    <hyperlink ref="C25" r:id="rId14"/>
+    <hyperlink ref="C27" r:id="rId15"/>
+    <hyperlink ref="C29" r:id="rId16"/>
+    <hyperlink ref="C31" r:id="rId17"/>
+    <hyperlink ref="C33" r:id="rId18"/>
+    <hyperlink ref="C35" r:id="rId19"/>
+    <hyperlink ref="C37" r:id="rId20"/>
+    <hyperlink ref="C39" r:id="rId21"/>
+    <hyperlink ref="C41" r:id="rId22"/>
+    <hyperlink ref="C43" r:id="rId23"/>
+    <hyperlink ref="C45" r:id="rId24"/>
+    <hyperlink ref="C47" r:id="rId25"/>
+    <hyperlink ref="C49" r:id="rId26"/>
+    <hyperlink ref="C51" r:id="rId27"/>
+    <hyperlink ref="C53" r:id="rId28"/>
+    <hyperlink ref="C4" r:id="rId29"/>
+    <hyperlink ref="C6" r:id="rId30"/>
+    <hyperlink ref="C8" r:id="rId31"/>
+    <hyperlink ref="C10" r:id="rId32"/>
+    <hyperlink ref="C12" r:id="rId33"/>
+    <hyperlink ref="C14" r:id="rId34"/>
+    <hyperlink ref="C16" r:id="rId35"/>
+    <hyperlink ref="C18" r:id="rId36"/>
+    <hyperlink ref="C20" r:id="rId37"/>
+    <hyperlink ref="C22" r:id="rId38"/>
+    <hyperlink ref="C24" r:id="rId39"/>
+    <hyperlink ref="C26" r:id="rId40"/>
+    <hyperlink ref="C28" r:id="rId41"/>
+    <hyperlink ref="C30" r:id="rId42"/>
+    <hyperlink ref="C32" r:id="rId43"/>
+    <hyperlink ref="C34" r:id="rId44"/>
+    <hyperlink ref="C36" r:id="rId45"/>
+    <hyperlink ref="C38" r:id="rId46"/>
+    <hyperlink ref="C40" r:id="rId47"/>
+    <hyperlink ref="C42" r:id="rId48"/>
+    <hyperlink ref="C44" r:id="rId49"/>
+    <hyperlink ref="C46" r:id="rId50"/>
+    <hyperlink ref="C48" r:id="rId51"/>
+    <hyperlink ref="C50" r:id="rId52"/>
+    <hyperlink ref="C52" r:id="rId53"/>
+    <hyperlink ref="C54" r:id="rId54"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16386,8 +16669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView topLeftCell="C19" workbookViewId="0">
-      <selection activeCell="H27" sqref="D23:H27"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/消防设施操作员/功能/消防课-整理中编码版.xlsx
+++ b/消防设施操作员/功能/消防课-整理中编码版.xlsx
@@ -7952,8 +7952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/消防设施操作员/功能/消防课-整理中编码版.xlsx
+++ b/消防设施操作员/功能/消防课-整理中编码版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="10755" windowHeight="4455" tabRatio="857" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="10755" windowHeight="4455" tabRatio="857" firstSheet="4" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,8 @@
     <sheet name="四级(中级)消防设施检测维修保养" sheetId="10" r:id="rId8"/>
     <sheet name="高级" sheetId="12" r:id="rId9"/>
     <sheet name="30min告别消防小白" sheetId="16" r:id="rId10"/>
-    <sheet name="剩余编码" sheetId="15" r:id="rId11"/>
+    <sheet name="消防考点速记" sheetId="17" r:id="rId11"/>
+    <sheet name="剩余编码" sheetId="15" r:id="rId12"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -7950,16 +7951,16 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A54" sqref="A18:XFD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.875" style="23" customWidth="1"/>
-    <col min="2" max="2" width="30.75" style="23" customWidth="1"/>
+    <col min="1" max="1" width="76" style="23" customWidth="1"/>
+    <col min="2" max="2" width="30.75" style="23" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="42" style="23" customWidth="1"/>
     <col min="4" max="5" width="34" style="23" customWidth="1"/>
     <col min="6" max="6" width="24.375" style="23" customWidth="1"/>
@@ -7989,7 +7990,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="23" t="str">
-        <f t="shared" ref="A2:A54" si="0">C2&amp;D2&amp;E2</f>
+        <f>C2&amp;D2&amp;E2</f>
         <v>https://ouyangxiaoxiao.github.io/30min/30min告别消防小白 燃烧条件.mp4</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -8010,7 +8011,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>C3&amp;D3&amp;E3</f>
         <v>https://ouyangxiaoxiao.github.io/30min/30min告别消防小白 爆炸极限.mp4</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -8031,7 +8032,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>C4&amp;D4&amp;E4</f>
         <v>https://ouyangxiaoxiao.github.io/30min/30min告别消防小白 生产的火灾危险性.mp4</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -8052,7 +8053,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>C5&amp;D5&amp;E5</f>
         <v>https://ouyangxiaoxiao.github.io/30min/30min告别消防小白 建筑分类.mp4</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -8073,7 +8074,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>C6&amp;D6&amp;E6</f>
         <v>https://ouyangxiaoxiao.github.io/30min/30min告别消防小白 防火间距.mp4</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -8094,7 +8095,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>C7&amp;D7&amp;E7</f>
         <v>https://ouyangxiaoxiao.github.io/30min/30min告别消防小白 防火门.mp4</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -8115,7 +8116,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>C8&amp;D8&amp;E8</f>
         <v>https://ouyangxiaoxiao.github.io/30min/30min告别消防小白 安全疏散.mp4</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -8136,7 +8137,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>C9&amp;D9&amp;E9</f>
         <v>https://ouyangxiaoxiao.github.io/30min/30min告别消防小白 装修材料.mp4</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -8157,7 +8158,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>C10&amp;D10&amp;E10</f>
         <v>https://ouyangxiaoxiao.github.io/30min/30min告别消防小白 消防车道.mp4</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -8178,7 +8179,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>C11&amp;D11&amp;E11</f>
         <v>https://ouyangxiaoxiao.github.io/30min/30min告别消防小白 室外消火栓.mp4</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -8199,7 +8200,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>C12&amp;D12&amp;E12</f>
         <v>https://ouyangxiaoxiao.github.io/30min/30min告别消防小白 自动喷水灭火系统.mp4</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -8220,7 +8221,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>C13&amp;D13&amp;E13</f>
         <v>https://ouyangxiaoxiao.github.io/30min/30min告别消防小白 气体灭火系统.mp4</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -8241,7 +8242,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>C14&amp;D14&amp;E14</f>
         <v>https://ouyangxiaoxiao.github.io/30min/30min告别消防小白 泡沫灭火系统.mp4</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -8262,7 +8263,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>C15&amp;D15&amp;E15</f>
         <v>https://ouyangxiaoxiao.github.io/30min/30min告别消防小白 火灾探测器.mp4</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -8283,7 +8284,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>C16&amp;D16&amp;E16</f>
         <v>https://ouyangxiaoxiao.github.io/30min/30min告别消防小白 防排烟系统.mp4</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -8304,7 +8305,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>C17&amp;D17&amp;E17</f>
         <v>https://ouyangxiaoxiao.github.io/30min/30min告别消防小白 灭火器分类.mp4</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -8321,783 +8322,6 @@
       </c>
       <c r="G17" s="23">
         <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ouyangxiaoxiao.github.io/30min/建筑防火 （0）前导.mp4</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>2070</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>2029</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>2068</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>816</v>
-      </c>
-      <c r="G18" s="23">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ouyangxiaoxiao.github.io/30min/建筑防火 （1）厂房建筑防火速记1.mp4</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>2070</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>2030</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>2068</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>817</v>
-      </c>
-      <c r="G19" s="23">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ouyangxiaoxiao.github.io/30min/建筑防火 （2）厂房建筑防火速记2.mp4</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>2070</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>2031</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>2068</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>818</v>
-      </c>
-      <c r="G20" s="23">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ouyangxiaoxiao.github.io/30min/建筑防火 （3）厂房建筑防火速记3.mp4</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>2070</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>2032</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>2068</v>
-      </c>
-      <c r="F21" s="23" t="s">
-        <v>819</v>
-      </c>
-      <c r="G21" s="23">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ouyangxiaoxiao.github.io/30min/建筑防火 （4）仓库建筑防火速记.mp4</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>2070</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>2033</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>2068</v>
-      </c>
-      <c r="F22" s="23" t="s">
-        <v>820</v>
-      </c>
-      <c r="G22" s="23">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ouyangxiaoxiao.github.io/30min/建筑防火 （5）民用建筑防火速记1.mp4</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>2070</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>2034</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>2068</v>
-      </c>
-      <c r="F23" s="23" t="s">
-        <v>821</v>
-      </c>
-      <c r="G23" s="23">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ouyangxiaoxiao.github.io/30min/建筑防火 （6）民用建筑防火速记2.mp4</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>2070</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>2035</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>2068</v>
-      </c>
-      <c r="F24" s="23" t="s">
-        <v>822</v>
-      </c>
-      <c r="G24" s="23">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ouyangxiaoxiao.github.io/30min/建筑防火 （7）民用建筑防火速记3.mp4</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>2070</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>2036</v>
-      </c>
-      <c r="E25" s="23" t="s">
-        <v>2068</v>
-      </c>
-      <c r="F25" s="23" t="s">
-        <v>823</v>
-      </c>
-      <c r="G25" s="23">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ouyangxiaoxiao.github.io/30min/建筑防火 （8）民用建筑防火速记4.mp4</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>2070</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>2037</v>
-      </c>
-      <c r="E26" s="23" t="s">
-        <v>2068</v>
-      </c>
-      <c r="F26" s="23" t="s">
-        <v>824</v>
-      </c>
-      <c r="G26" s="23">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ouyangxiaoxiao.github.io/30min/建筑防火 （9）建筑防火共性考点速记1.mp4</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>2070</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>2038</v>
-      </c>
-      <c r="E27" s="23" t="s">
-        <v>2068</v>
-      </c>
-      <c r="F27" s="23" t="s">
-        <v>825</v>
-      </c>
-      <c r="G27" s="23">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ouyangxiaoxiao.github.io/30min/建筑防火 （10）建筑防火共性考点速记2.mp4</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>2070</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>2039</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>2068</v>
-      </c>
-      <c r="F28" s="23" t="s">
-        <v>826</v>
-      </c>
-      <c r="G28" s="23">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ouyangxiaoxiao.github.io/30min/建筑防火 （11）建筑防火共性考点速记3.mp4</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>2070</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>2040</v>
-      </c>
-      <c r="E29" s="23" t="s">
-        <v>2068</v>
-      </c>
-      <c r="F29" s="23" t="s">
-        <v>827</v>
-      </c>
-      <c r="G29" s="23">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ouyangxiaoxiao.github.io/30min/设施实务 （1）消防给水.mp4</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>2070</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>2041</v>
-      </c>
-      <c r="E30" s="23" t="s">
-        <v>2068</v>
-      </c>
-      <c r="F30" s="23" t="s">
-        <v>828</v>
-      </c>
-      <c r="G30" s="23">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ouyangxiaoxiao.github.io/30min/设施实务 （2）消火栓.mp4</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>2070</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>2042</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>2068</v>
-      </c>
-      <c r="F31" s="23" t="s">
-        <v>829</v>
-      </c>
-      <c r="G31" s="23">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ouyangxiaoxiao.github.io/30min/设施实务 （3）自动喷水.mp4</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>2070</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>2043</v>
-      </c>
-      <c r="E32" s="23" t="s">
-        <v>2068</v>
-      </c>
-      <c r="F32" s="23" t="s">
-        <v>830</v>
-      </c>
-      <c r="G32" s="23">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ouyangxiaoxiao.github.io/30min/设施实务 （4）水喷雾细水雾.mp4</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>2070</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>2044</v>
-      </c>
-      <c r="E33" s="23" t="s">
-        <v>2068</v>
-      </c>
-      <c r="F33" s="23" t="s">
-        <v>831</v>
-      </c>
-      <c r="G33" s="23">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ouyangxiaoxiao.github.io/30min/设施实务 （5）泡沫.mp4</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>2070</v>
-      </c>
-      <c r="D34" s="23" t="s">
-        <v>2045</v>
-      </c>
-      <c r="E34" s="23" t="s">
-        <v>2068</v>
-      </c>
-      <c r="F34" s="23" t="s">
-        <v>832</v>
-      </c>
-      <c r="G34" s="23">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ouyangxiaoxiao.github.io/30min/设施实务 （6）气体干粉.mp4</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>2070</v>
-      </c>
-      <c r="D35" s="23" t="s">
-        <v>2046</v>
-      </c>
-      <c r="E35" s="23" t="s">
-        <v>2068</v>
-      </c>
-      <c r="F35" s="23" t="s">
-        <v>833</v>
-      </c>
-      <c r="G35" s="23">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ouyangxiaoxiao.github.io/30min/设施实务 （7）灭火器.mp4</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>2070</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>2047</v>
-      </c>
-      <c r="E36" s="23" t="s">
-        <v>2068</v>
-      </c>
-      <c r="F36" s="23" t="s">
-        <v>834</v>
-      </c>
-      <c r="G36" s="23">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ouyangxiaoxiao.github.io/30min/设施实务 （8）防排烟.mp4</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>2070</v>
-      </c>
-      <c r="D37" s="23" t="s">
-        <v>2048</v>
-      </c>
-      <c r="E37" s="23" t="s">
-        <v>2068</v>
-      </c>
-      <c r="F37" s="23" t="s">
-        <v>835</v>
-      </c>
-      <c r="G37" s="23">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ouyangxiaoxiao.github.io/30min/设施实务 （9）自动报警.mp4</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>2070</v>
-      </c>
-      <c r="D38" s="23" t="s">
-        <v>2049</v>
-      </c>
-      <c r="E38" s="23" t="s">
-        <v>2068</v>
-      </c>
-      <c r="F38" s="23" t="s">
-        <v>836</v>
-      </c>
-      <c r="G38" s="23">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ouyangxiaoxiao.github.io/30min/设施实务 （10）照明供电.mp4</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>2070</v>
-      </c>
-      <c r="D39" s="23" t="s">
-        <v>2050</v>
-      </c>
-      <c r="E39" s="23" t="s">
-        <v>2068</v>
-      </c>
-      <c r="F39" s="23" t="s">
-        <v>837</v>
-      </c>
-      <c r="G39" s="23">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ouyangxiaoxiao.github.io/30min/设施综合 （1）安装前检查速记1.mp4</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>2070</v>
-      </c>
-      <c r="D40" s="23" t="s">
-        <v>2051</v>
-      </c>
-      <c r="E40" s="23" t="s">
-        <v>2068</v>
-      </c>
-      <c r="F40" s="23" t="s">
-        <v>838</v>
-      </c>
-      <c r="G40" s="23">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ouyangxiaoxiao.github.io/30min/设施综合 （2）安装前检查速记2.mp4</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>2070</v>
-      </c>
-      <c r="D41" s="23" t="s">
-        <v>2052</v>
-      </c>
-      <c r="E41" s="23" t="s">
-        <v>2068</v>
-      </c>
-      <c r="F41" s="23" t="s">
-        <v>839</v>
-      </c>
-      <c r="G41" s="23">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ouyangxiaoxiao.github.io/30min/设施综合 （3）安装速记1.mp4</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>2070</v>
-      </c>
-      <c r="D42" s="23" t="s">
-        <v>2053</v>
-      </c>
-      <c r="E42" s="23" t="s">
-        <v>2068</v>
-      </c>
-      <c r="F42" s="23" t="s">
-        <v>840</v>
-      </c>
-      <c r="G42" s="23">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ouyangxiaoxiao.github.io/30min/设施综合 （4）安装速记2.mp4</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>2070</v>
-      </c>
-      <c r="D43" s="23" t="s">
-        <v>2054</v>
-      </c>
-      <c r="E43" s="23" t="s">
-        <v>2068</v>
-      </c>
-      <c r="F43" s="23" t="s">
-        <v>841</v>
-      </c>
-      <c r="G43" s="23">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ouyangxiaoxiao.github.io/30min/设施综合 （5）安装速记3.mp4</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>2070</v>
-      </c>
-      <c r="D44" s="23" t="s">
-        <v>2055</v>
-      </c>
-      <c r="E44" s="23" t="s">
-        <v>2068</v>
-      </c>
-      <c r="F44" s="23" t="s">
-        <v>842</v>
-      </c>
-      <c r="G44" s="23">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ouyangxiaoxiao.github.io/30min/设施综合 （6）调试速记1.mp4</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>2070</v>
-      </c>
-      <c r="D45" s="23" t="s">
-        <v>2056</v>
-      </c>
-      <c r="E45" s="23" t="s">
-        <v>2068</v>
-      </c>
-      <c r="F45" s="23" t="s">
-        <v>843</v>
-      </c>
-      <c r="G45" s="23">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ouyangxiaoxiao.github.io/30min/设施综合 （7）调试速记2.mp4</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>2070</v>
-      </c>
-      <c r="D46" s="23" t="s">
-        <v>2057</v>
-      </c>
-      <c r="E46" s="23" t="s">
-        <v>2068</v>
-      </c>
-      <c r="F46" s="23" t="s">
-        <v>844</v>
-      </c>
-      <c r="G46" s="23">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ouyangxiaoxiao.github.io/30min/设施综合 （8）维护管理速记.mp4</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>2070</v>
-      </c>
-      <c r="D47" s="23" t="s">
-        <v>2058</v>
-      </c>
-      <c r="E47" s="23" t="s">
-        <v>2068</v>
-      </c>
-      <c r="F47" s="23" t="s">
-        <v>845</v>
-      </c>
-      <c r="G47" s="23">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ouyangxiaoxiao.github.io/30min/法规管理 （1）法律法规速记1.mp4</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>2070</v>
-      </c>
-      <c r="D48" s="23" t="s">
-        <v>2059</v>
-      </c>
-      <c r="E48" s="23" t="s">
-        <v>2068</v>
-      </c>
-      <c r="F48" s="23" t="s">
-        <v>846</v>
-      </c>
-      <c r="G48" s="23">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ouyangxiaoxiao.github.io/30min/法规管理 （2）法律法规速记2.mp4</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>2070</v>
-      </c>
-      <c r="D49" s="23" t="s">
-        <v>2060</v>
-      </c>
-      <c r="E49" s="23" t="s">
-        <v>2068</v>
-      </c>
-      <c r="F49" s="23" t="s">
-        <v>847</v>
-      </c>
-      <c r="G49" s="23">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ouyangxiaoxiao.github.io/30min/法规管理 （3）消防安全管理速记1.mp4</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>2070</v>
-      </c>
-      <c r="D50" s="23" t="s">
-        <v>2061</v>
-      </c>
-      <c r="E50" s="23" t="s">
-        <v>2068</v>
-      </c>
-      <c r="F50" s="23" t="s">
-        <v>848</v>
-      </c>
-      <c r="G50" s="23">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ouyangxiaoxiao.github.io/30min/法规管理 （4）消防安全管理速记2.mp4</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>2070</v>
-      </c>
-      <c r="D51" s="23" t="s">
-        <v>2062</v>
-      </c>
-      <c r="E51" s="23" t="s">
-        <v>2068</v>
-      </c>
-      <c r="F51" s="23" t="s">
-        <v>849</v>
-      </c>
-      <c r="G51" s="23">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ouyangxiaoxiao.github.io/30min/其他场所 （1）石油化工.mp4</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>2070</v>
-      </c>
-      <c r="D52" s="23" t="s">
-        <v>2063</v>
-      </c>
-      <c r="E52" s="23" t="s">
-        <v>2068</v>
-      </c>
-      <c r="F52" s="23" t="s">
-        <v>850</v>
-      </c>
-      <c r="G52" s="23">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ouyangxiaoxiao.github.io/30min/其他场所 （2）汽车库修车库.mp4</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>2070</v>
-      </c>
-      <c r="D53" s="23" t="s">
-        <v>2064</v>
-      </c>
-      <c r="E53" s="23" t="s">
-        <v>2068</v>
-      </c>
-      <c r="F53" s="23" t="s">
-        <v>851</v>
-      </c>
-      <c r="G53" s="23">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ouyangxiaoxiao.github.io/30min/其他场所 （3）人防工程.mp4</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>2070</v>
-      </c>
-      <c r="D54" s="23" t="s">
-        <v>2065</v>
-      </c>
-      <c r="E54" s="23" t="s">
-        <v>2068</v>
-      </c>
-      <c r="F54" s="23" t="s">
-        <v>852</v>
-      </c>
-      <c r="G54" s="23">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -9113,56 +8337,856 @@
     <hyperlink ref="C13" r:id="rId8"/>
     <hyperlink ref="C15" r:id="rId9"/>
     <hyperlink ref="C17" r:id="rId10"/>
-    <hyperlink ref="C19" r:id="rId11"/>
-    <hyperlink ref="C21" r:id="rId12"/>
-    <hyperlink ref="C23" r:id="rId13"/>
-    <hyperlink ref="C25" r:id="rId14"/>
-    <hyperlink ref="C27" r:id="rId15"/>
-    <hyperlink ref="C29" r:id="rId16"/>
-    <hyperlink ref="C31" r:id="rId17"/>
-    <hyperlink ref="C33" r:id="rId18"/>
-    <hyperlink ref="C35" r:id="rId19"/>
-    <hyperlink ref="C37" r:id="rId20"/>
-    <hyperlink ref="C39" r:id="rId21"/>
-    <hyperlink ref="C41" r:id="rId22"/>
-    <hyperlink ref="C43" r:id="rId23"/>
-    <hyperlink ref="C45" r:id="rId24"/>
-    <hyperlink ref="C47" r:id="rId25"/>
-    <hyperlink ref="C49" r:id="rId26"/>
-    <hyperlink ref="C51" r:id="rId27"/>
-    <hyperlink ref="C53" r:id="rId28"/>
-    <hyperlink ref="C4" r:id="rId29"/>
-    <hyperlink ref="C6" r:id="rId30"/>
-    <hyperlink ref="C8" r:id="rId31"/>
-    <hyperlink ref="C10" r:id="rId32"/>
-    <hyperlink ref="C12" r:id="rId33"/>
-    <hyperlink ref="C14" r:id="rId34"/>
-    <hyperlink ref="C16" r:id="rId35"/>
-    <hyperlink ref="C18" r:id="rId36"/>
-    <hyperlink ref="C20" r:id="rId37"/>
-    <hyperlink ref="C22" r:id="rId38"/>
-    <hyperlink ref="C24" r:id="rId39"/>
-    <hyperlink ref="C26" r:id="rId40"/>
-    <hyperlink ref="C28" r:id="rId41"/>
-    <hyperlink ref="C30" r:id="rId42"/>
-    <hyperlink ref="C32" r:id="rId43"/>
-    <hyperlink ref="C34" r:id="rId44"/>
-    <hyperlink ref="C36" r:id="rId45"/>
-    <hyperlink ref="C38" r:id="rId46"/>
-    <hyperlink ref="C40" r:id="rId47"/>
-    <hyperlink ref="C42" r:id="rId48"/>
-    <hyperlink ref="C44" r:id="rId49"/>
-    <hyperlink ref="C46" r:id="rId50"/>
-    <hyperlink ref="C48" r:id="rId51"/>
-    <hyperlink ref="C50" r:id="rId52"/>
-    <hyperlink ref="C52" r:id="rId53"/>
-    <hyperlink ref="C54" r:id="rId54"/>
+    <hyperlink ref="C4" r:id="rId11"/>
+    <hyperlink ref="C6" r:id="rId12"/>
+    <hyperlink ref="C8" r:id="rId13"/>
+    <hyperlink ref="C10" r:id="rId14"/>
+    <hyperlink ref="C12" r:id="rId15"/>
+    <hyperlink ref="C14" r:id="rId16"/>
+    <hyperlink ref="C16" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="50.375" customWidth="1"/>
+    <col min="2" max="2" width="27.5" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="23" t="str">
+        <f>B1&amp;E1&amp;D1</f>
+        <v>https://ouyangxiaoxiao.github.io/30min/47bn08huk2nvyrx.mp4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>2029</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>816</v>
+      </c>
+      <c r="F1" s="23">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="23" t="str">
+        <f t="shared" ref="A2:A37" si="0">B2&amp;E2&amp;D2</f>
+        <v>https://ouyangxiaoxiao.github.io/30min/w5l613trtzh9g32.mp4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>2030</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>817</v>
+      </c>
+      <c r="F2" s="23">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/dhfupsikk32rjo8.mp4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>2031</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>818</v>
+      </c>
+      <c r="F3" s="23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/jnscwsn399d1jok.mp4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>2032</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>819</v>
+      </c>
+      <c r="F4" s="23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/1mb1yx1h6sfu5i9.mp4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>2033</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>820</v>
+      </c>
+      <c r="F5" s="23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/53gi1z5rdfgpw91.mp4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>2034</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>821</v>
+      </c>
+      <c r="F6" s="23">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/0zvitxh588vao6u.mp4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>2035</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>822</v>
+      </c>
+      <c r="F7" s="23">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/f43sword5sbetef.mp4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>2036</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>823</v>
+      </c>
+      <c r="F8" s="23">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/q4k1rdaz24oknee.mp4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>2037</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>824</v>
+      </c>
+      <c r="F9" s="23">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/2kx6w3nppwinjyw.mp4</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>2038</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="F10" s="23">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/wsppoisdqbpa29k.mp4</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>2039</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>826</v>
+      </c>
+      <c r="F11" s="23">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/918qsm21k1zplrb.mp4</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>2040</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>827</v>
+      </c>
+      <c r="F12" s="23">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/rxoa0hadusi19u7.mp4</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>2041</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>828</v>
+      </c>
+      <c r="F13" s="23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/ghl1v2ai5c19i13.mp4</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>2042</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>829</v>
+      </c>
+      <c r="F14" s="23">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/glmxzk0qs2flqqs.mp4</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>2043</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>830</v>
+      </c>
+      <c r="F15" s="23">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/y3dtw7fkh6oqi29.mp4</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>2044</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>831</v>
+      </c>
+      <c r="F16" s="23">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/4ftqo9jyvn880jw.mp4</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>2045</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>832</v>
+      </c>
+      <c r="F17" s="23">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/dz1dignyx731pt6.mp4</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>2046</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>833</v>
+      </c>
+      <c r="F18" s="23">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/eslivgk70eg8x2w.mp4</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>2047</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>834</v>
+      </c>
+      <c r="F19" s="23">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/62ht3muj1bi1osk.mp4</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>2048</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>835</v>
+      </c>
+      <c r="F20" s="23">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/sakoym945etjger.mp4</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>2049</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>836</v>
+      </c>
+      <c r="F21" s="23">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/w75abdok9mzinzb.mp4</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>2050</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>837</v>
+      </c>
+      <c r="F22" s="23">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/lmrnfhs3xk0r5ue.mp4</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>2051</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>838</v>
+      </c>
+      <c r="F23" s="23">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/vrzsi3poy8mpdt3.mp4</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>2052</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>839</v>
+      </c>
+      <c r="F24" s="23">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/ywpck91nm1b8yqd.mp4</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>2053</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>840</v>
+      </c>
+      <c r="F25" s="23">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/527tgdyullceiwe.mp4</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>2054</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>841</v>
+      </c>
+      <c r="F26" s="23">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/d9hxzyokc3s0fjw.mp4</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>2055</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>842</v>
+      </c>
+      <c r="F27" s="23">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/fe971j6s9lz4wcx.mp4</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>2056</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>843</v>
+      </c>
+      <c r="F28" s="23">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/4ylhemfdkyn2pcc.mp4</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>2057</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>844</v>
+      </c>
+      <c r="F29" s="23">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/fgjd6vm0s3z81rp.mp4</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>2058</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>845</v>
+      </c>
+      <c r="F30" s="23">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/ktj64g3s3fhvqku.mp4</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>2059</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>846</v>
+      </c>
+      <c r="F31" s="23">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/u9p3epjo957mzft.mp4</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>2060</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>847</v>
+      </c>
+      <c r="F32" s="23">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/uvuh1e38ugi8myh.mp4</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>2061</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>848</v>
+      </c>
+      <c r="F33" s="23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/7h554wpo0pdct5p.mp4</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>2062</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>849</v>
+      </c>
+      <c r="F34" s="23">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/z9o6pw21ym69l08.mp4</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>2063</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>850</v>
+      </c>
+      <c r="F35" s="23">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/02gozz8anrzz7ci.mp4</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>2064</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>851</v>
+      </c>
+      <c r="F36" s="23">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/nv3kh1o7qklulxu.mp4</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>2065</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>852</v>
+      </c>
+      <c r="F37" s="23">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B6" r:id="rId3"/>
+    <hyperlink ref="B8" r:id="rId4"/>
+    <hyperlink ref="B10" r:id="rId5"/>
+    <hyperlink ref="B12" r:id="rId6"/>
+    <hyperlink ref="B14" r:id="rId7"/>
+    <hyperlink ref="B16" r:id="rId8"/>
+    <hyperlink ref="B18" r:id="rId9"/>
+    <hyperlink ref="B20" r:id="rId10"/>
+    <hyperlink ref="B22" r:id="rId11"/>
+    <hyperlink ref="B24" r:id="rId12"/>
+    <hyperlink ref="B26" r:id="rId13"/>
+    <hyperlink ref="B28" r:id="rId14"/>
+    <hyperlink ref="B30" r:id="rId15"/>
+    <hyperlink ref="B32" r:id="rId16"/>
+    <hyperlink ref="B34" r:id="rId17"/>
+    <hyperlink ref="B36" r:id="rId18"/>
+    <hyperlink ref="B1" r:id="rId19"/>
+    <hyperlink ref="B3" r:id="rId20"/>
+    <hyperlink ref="B5" r:id="rId21"/>
+    <hyperlink ref="B7" r:id="rId22"/>
+    <hyperlink ref="B9" r:id="rId23"/>
+    <hyperlink ref="B11" r:id="rId24"/>
+    <hyperlink ref="B13" r:id="rId25"/>
+    <hyperlink ref="B15" r:id="rId26"/>
+    <hyperlink ref="B17" r:id="rId27"/>
+    <hyperlink ref="B19" r:id="rId28"/>
+    <hyperlink ref="B21" r:id="rId29"/>
+    <hyperlink ref="B23" r:id="rId30"/>
+    <hyperlink ref="B25" r:id="rId31"/>
+    <hyperlink ref="B27" r:id="rId32"/>
+    <hyperlink ref="B29" r:id="rId33"/>
+    <hyperlink ref="B31" r:id="rId34"/>
+    <hyperlink ref="B33" r:id="rId35"/>
+    <hyperlink ref="B35" r:id="rId36"/>
+    <hyperlink ref="B37" r:id="rId37"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A58:A682"/>
   <sheetViews>

--- a/消防设施操作员/功能/消防课-整理中编码版.xlsx
+++ b/消防设施操作员/功能/消防课-整理中编码版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="10755" windowHeight="4455" tabRatio="857" firstSheet="4" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="10755" windowHeight="4455" tabRatio="857" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
@@ -7953,8 +7953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A54" sqref="A18:XFD54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7969,8 +7969,8 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="23" t="str">
-        <f>C1&amp;D1&amp;E1</f>
-        <v>https://ouyangxiaoxiao.github.io/30min/30min告别消防小白 前导.mp4</v>
+        <f>C1&amp;F1&amp;E1</f>
+        <v>https://ouyangxiaoxiao.github.io/30min/spyx7dywgxszksm.mp4</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2071</v>
@@ -7990,8 +7990,8 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="23" t="str">
-        <f>C2&amp;D2&amp;E2</f>
-        <v>https://ouyangxiaoxiao.github.io/30min/30min告别消防小白 燃烧条件.mp4</v>
+        <f t="shared" ref="A2:A17" si="0">C2&amp;F2&amp;E2</f>
+        <v>https://ouyangxiaoxiao.github.io/30min/vyo6stgbajad4ns.mp4</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2071</v>
@@ -8011,8 +8011,8 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="23" t="str">
-        <f>C3&amp;D3&amp;E3</f>
-        <v>https://ouyangxiaoxiao.github.io/30min/30min告别消防小白 爆炸极限.mp4</v>
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/512dvjpvusbx0fn.mp4</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2070</v>
@@ -8032,8 +8032,8 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="23" t="str">
-        <f>C4&amp;D4&amp;E4</f>
-        <v>https://ouyangxiaoxiao.github.io/30min/30min告别消防小白 生产的火灾危险性.mp4</v>
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/ox39kqxyat6b4kr.mp4</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2070</v>
@@ -8053,8 +8053,8 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="23" t="str">
-        <f>C5&amp;D5&amp;E5</f>
-        <v>https://ouyangxiaoxiao.github.io/30min/30min告别消防小白 建筑分类.mp4</v>
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/ieg4g4x7iotlpii.mp4</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>2070</v>
@@ -8074,8 +8074,8 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="23" t="str">
-        <f>C6&amp;D6&amp;E6</f>
-        <v>https://ouyangxiaoxiao.github.io/30min/30min告别消防小白 防火间距.mp4</v>
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/q820sa5e35cvqg5.mp4</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>2070</v>
@@ -8095,8 +8095,8 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="23" t="str">
-        <f>C7&amp;D7&amp;E7</f>
-        <v>https://ouyangxiaoxiao.github.io/30min/30min告别消防小白 防火门.mp4</v>
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/y9k5d7wwngqezat.mp4</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2070</v>
@@ -8116,8 +8116,8 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="23" t="str">
-        <f>C8&amp;D8&amp;E8</f>
-        <v>https://ouyangxiaoxiao.github.io/30min/30min告别消防小白 安全疏散.mp4</v>
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/caanvfzzl5h3cjy.mp4</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>2070</v>
@@ -8137,8 +8137,8 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="23" t="str">
-        <f>C9&amp;D9&amp;E9</f>
-        <v>https://ouyangxiaoxiao.github.io/30min/30min告别消防小白 装修材料.mp4</v>
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/wp7uqchtq1vdccu.mp4</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2070</v>
@@ -8158,8 +8158,8 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="23" t="str">
-        <f>C10&amp;D10&amp;E10</f>
-        <v>https://ouyangxiaoxiao.github.io/30min/30min告别消防小白 消防车道.mp4</v>
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/xgagngtri9yn0my.mp4</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>2070</v>
@@ -8179,8 +8179,8 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="23" t="str">
-        <f>C11&amp;D11&amp;E11</f>
-        <v>https://ouyangxiaoxiao.github.io/30min/30min告别消防小白 室外消火栓.mp4</v>
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/2g2szieg7lwqheu.mp4</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>2070</v>
@@ -8200,8 +8200,8 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="23" t="str">
-        <f>C12&amp;D12&amp;E12</f>
-        <v>https://ouyangxiaoxiao.github.io/30min/30min告别消防小白 自动喷水灭火系统.mp4</v>
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/ajnnkslhxoniujy.mp4</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>2070</v>
@@ -8221,8 +8221,8 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="23" t="str">
-        <f>C13&amp;D13&amp;E13</f>
-        <v>https://ouyangxiaoxiao.github.io/30min/30min告别消防小白 气体灭火系统.mp4</v>
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/a5udammnv5fc7ut.mp4</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>2070</v>
@@ -8242,8 +8242,8 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="23" t="str">
-        <f>C14&amp;D14&amp;E14</f>
-        <v>https://ouyangxiaoxiao.github.io/30min/30min告别消防小白 泡沫灭火系统.mp4</v>
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/iwgrt9kbpar63qe.mp4</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>2070</v>
@@ -8263,8 +8263,8 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="23" t="str">
-        <f>C15&amp;D15&amp;E15</f>
-        <v>https://ouyangxiaoxiao.github.io/30min/30min告别消防小白 火灾探测器.mp4</v>
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/05qvcgu3f4m8roo.mp4</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>2070</v>
@@ -8284,8 +8284,8 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="23" t="str">
-        <f>C16&amp;D16&amp;E16</f>
-        <v>https://ouyangxiaoxiao.github.io/30min/30min告别消防小白 防排烟系统.mp4</v>
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/p85gi2m1iqes1ue.mp4</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>2070</v>
@@ -8305,8 +8305,8 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="23" t="str">
-        <f>C17&amp;D17&amp;E17</f>
-        <v>https://ouyangxiaoxiao.github.io/30min/30min告别消防小白 灭火器分类.mp4</v>
+        <f t="shared" si="0"/>
+        <v>https://ouyangxiaoxiao.github.io/30min/32g1cjugnwns324.mp4</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>2070</v>
@@ -8353,9 +8353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
